--- a/03 - Model/overviewM2.xlsx
+++ b/03 - Model/overviewM2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Course 2023-2024 Modelación y optimización\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\EnergySystem\03 - Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C99FE42C-9108-4663-9100-508193DEBA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8005F4-49A2-41A7-940C-7D5EFE36B275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="743" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3525" yWindow="-13755" windowWidth="17280" windowHeight="8880" tabRatio="743" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulation" sheetId="1" r:id="rId1"/>
@@ -1064,11 +1064,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -26679,7 +26679,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27006,8 +27006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V78"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7:V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27448,8 +27448,8 @@
       <c r="U7">
         <v>335.33713544632184</v>
       </c>
-      <c r="V7">
-        <v>0.85934825960018135</v>
+      <c r="V7" s="8">
+        <v>0.31969983823304393</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -27520,8 +27520,8 @@
       <c r="U8">
         <v>132.85898681131246</v>
       </c>
-      <c r="V8">
-        <v>0.48594719045747065</v>
+      <c r="V8" s="8">
+        <v>0.31969983823304393</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -27592,8 +27592,8 @@
       <c r="U9">
         <v>74.378692976472053</v>
       </c>
-      <c r="V9">
-        <v>0.53494457625822012</v>
+      <c r="V9" s="8">
+        <v>0.31969983823304393</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -27811,7 +27811,7 @@
       <c r="N16" s="41"/>
       <c r="Q16" s="41"/>
     </row>
-    <row r="17" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="52" t="s">
         <v>204</v>
@@ -27828,7 +27828,7 @@
       <c r="N17" s="41"/>
       <c r="Q17" s="41"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="30" t="s">
         <v>192</v>
@@ -27850,7 +27850,7 @@
       <c r="N18" s="41"/>
       <c r="Q18" s="43"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -27876,8 +27876,12 @@
       <c r="M19" s="41"/>
       <c r="N19" s="41"/>
       <c r="Q19" s="43"/>
-    </row>
-    <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="R19">
+        <f>U9</f>
+        <v>74.378692976472053</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -27904,7 +27908,7 @@
       <c r="N20" s="41"/>
       <c r="Q20" s="43"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -27935,7 +27939,7 @@
       <c r="N21" s="41"/>
       <c r="Q21" s="43"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
@@ -27968,7 +27972,7 @@
       <c r="P22" s="41"/>
       <c r="Q22" s="43"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -28001,7 +28005,7 @@
       <c r="P23" s="41"/>
       <c r="Q23" s="43"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -28027,7 +28031,7 @@
       <c r="N24" s="8"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -28053,7 +28057,7 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
@@ -28078,7 +28082,7 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -28086,7 +28090,7 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -28094,7 +28098,7 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -28102,19 +28106,19 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -31651,12 +31655,12 @@
       <c r="H7" s="24"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="54" t="str">
+      <c r="K7" s="55" t="str">
         <f>IF(SUM(G13:I13)&gt;0.99,"Probability wind scenarios OK!","Probability wind scenarios not OK!")</f>
         <v>Probability wind scenarios OK!</v>
       </c>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
     </row>
     <row r="8" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
@@ -31682,12 +31686,12 @@
       <c r="H8" s="25"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="54" t="str">
+      <c r="K8" s="55" t="str">
         <f>IF(SUM(J13:L13)&gt;0.99,"Probability solar scenarios OK!","Probability solar scenarios not OK!")</f>
         <v>Probability solar scenarios OK!</v>
       </c>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
     </row>
     <row r="9" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32"/>
@@ -31705,25 +31709,25 @@
     </row>
     <row r="10" spans="1:31" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55" t="s">
+      <c r="C10" s="54"/>
+      <c r="D10" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="E10" s="55"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="28"/>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55" t="s">
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
       <c r="M10" s="49" t="s">
         <v>227</v>
       </c>
@@ -31736,27 +31740,27 @@
     </row>
     <row r="11" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="28"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
       <c r="M11" s="49"/>
       <c r="N11" s="49"/>
       <c r="O11" s="49"/>
     </row>
     <row r="12" spans="1:31" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="3" t="s">
         <v>168</v>
       </c>
@@ -64741,6 +64745,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K7:M7"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="B10:C12"/>
@@ -64748,11 +64757,6 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="J10:L11"/>
     <mergeCell ref="G10:I11"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -64764,7 +64768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CB0C91-D55A-463B-B765-5B4ECFB7070D}">
   <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
